--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/14.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/14.xlsx
@@ -479,13 +479,13 @@
         <v>0.0851416675889894</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.90716008724558</v>
+        <v>-2.001165941311404</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2205945475614534</v>
+        <v>0.08637662327762932</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03434916970966648</v>
+        <v>0.03844539697470643</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1043340131945035</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.015619231588303</v>
+        <v>-2.14019613973477</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09302536857485989</v>
+        <v>-0.04901722807096508</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02021311419086129</v>
+        <v>0.01200533563767812</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1283608043253225</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.244334606003411</v>
+        <v>-2.328822647908582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07645809323235239</v>
+        <v>-0.07945714920610715</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02910697749920147</v>
+        <v>-0.02710521783811435</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1534120618517672</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.290556834570086</v>
+        <v>-2.357461473285287</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1136547156245095</v>
+        <v>-0.03819357574139404</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02961260174022561</v>
+        <v>0.0007565685964136897</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1769511400512267</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.258479886338552</v>
+        <v>-2.313467284950773</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08191139400315678</v>
+        <v>-0.08425844477346786</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02804388575962961</v>
+        <v>0.001336603160001093</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1960526169414465</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.964037020114366</v>
+        <v>-1.934428420861632</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1823665493049154</v>
+        <v>0.01916214485863984</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04956249715597784</v>
+        <v>-0.02486253950971174</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2097026775310718</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.782036690172746</v>
+        <v>-1.750736170962712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1684591380337062</v>
+        <v>0.03636251786361182</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.006321560857247522</v>
+        <v>0.004312406141854868</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2195203994320859</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.334631817426915</v>
+        <v>-1.357368440414729</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2001853818761099</v>
+        <v>0.08595699785202665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03403391672597229</v>
+        <v>-0.05752257190821674</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2287973124046102</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7857202861326116</v>
+        <v>-0.8457401402486809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2062052989556133</v>
+        <v>0.1473711306351421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03924683274395338</v>
+        <v>0.03776045605471837</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2410161659555306</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4106154104084955</v>
+        <v>-0.5529586979479573</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09860675268778138</v>
+        <v>0.05010586047277581</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0524790618260025</v>
+        <v>0.07784810245466123</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2599222271493787</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2007434592953344</v>
+        <v>0.1353630123513263</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05134834489749615</v>
+        <v>-0.06859324211187075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1680120661776499</v>
+        <v>0.1989582214744929</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.291275200367661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6635628573046189</v>
+        <v>0.5495223288489741</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1354051728842065</v>
+        <v>-0.06400175925731136</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2304350077601066</v>
+        <v>0.2472547902627878</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.340949153126064</v>
       </c>
       <c r="E14" t="n">
-        <v>1.108683577116028</v>
+        <v>1.000150632371418</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4431180832723995</v>
+        <v>-0.3933089112057693</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3663125262053622</v>
+        <v>0.4382490105037352</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4129015262648975</v>
       </c>
       <c r="E15" t="n">
-        <v>1.615977171032428</v>
+        <v>1.566010639431197</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8091455095644743</v>
+        <v>-0.8121438796113677</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4150836132801672</v>
+        <v>0.4401550126185728</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5085819209898511</v>
       </c>
       <c r="E16" t="n">
-        <v>2.230192909186146</v>
+        <v>2.288986822741951</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.024463976314811</v>
+        <v>-0.9901223926105115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.529143659197468</v>
+        <v>0.5372958589628826</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6269496325859979</v>
       </c>
       <c r="E17" t="n">
-        <v>2.651362653942336</v>
+        <v>2.706919108545963</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.358116813085099</v>
+        <v>-1.296728906891083</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5768235981815707</v>
+        <v>0.5543846164840096</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7632766666052805</v>
       </c>
       <c r="E18" t="n">
-        <v>3.11267981732479</v>
+        <v>3.241187664232899</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.58697978830398</v>
+        <v>-1.566967680979199</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6920028485407042</v>
+        <v>0.6398418223445336</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.908131642028452</v>
       </c>
       <c r="E19" t="n">
-        <v>3.340995083775951</v>
+        <v>3.454514739973653</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.863225671137387</v>
+        <v>-1.864537000592395</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8377879184590552</v>
+        <v>0.8013177115929051</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.053055172692943</v>
       </c>
       <c r="E20" t="n">
-        <v>3.627130830382828</v>
+        <v>3.756165648755647</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.05106965108293</v>
+        <v>-2.070243727397859</v>
       </c>
       <c r="G20" t="n">
-        <v>1.063772678004362</v>
+        <v>1.030809515029513</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.192908975330388</v>
       </c>
       <c r="E21" t="n">
-        <v>3.91695659708403</v>
+        <v>4.124650445454339</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.316353429593144</v>
+        <v>-2.391001011299663</v>
       </c>
       <c r="G21" t="n">
-        <v>1.173680383954362</v>
+        <v>1.180813406268931</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.323757217188515</v>
       </c>
       <c r="E22" t="n">
-        <v>4.156829860359567</v>
+        <v>4.392683746375334</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.541537363289881</v>
+        <v>-2.666677228220987</v>
       </c>
       <c r="G22" t="n">
-        <v>1.190967365695432</v>
+        <v>1.157295474894202</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.44140694695446</v>
       </c>
       <c r="E23" t="n">
-        <v>4.408834445895622</v>
+        <v>4.677269074621917</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.698401032380684</v>
+        <v>-2.858965700137994</v>
       </c>
       <c r="G23" t="n">
-        <v>1.398192185065322</v>
+        <v>1.428743721684309</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.543339922233773</v>
       </c>
       <c r="E24" t="n">
-        <v>4.542570532844816</v>
+        <v>4.797394171748801</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.849359449479212</v>
+        <v>-3.000362085826804</v>
       </c>
       <c r="G24" t="n">
-        <v>1.481972109064789</v>
+        <v>1.551949528149447</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.627085976315404</v>
       </c>
       <c r="E25" t="n">
-        <v>4.756317234011172</v>
+        <v>5.045849018946183</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.979444551257391</v>
+        <v>-3.179659247329077</v>
       </c>
       <c r="G25" t="n">
-        <v>1.553462131427782</v>
+        <v>1.59091004113876</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.690811857975748</v>
       </c>
       <c r="E26" t="n">
-        <v>4.854886514580427</v>
+        <v>5.073621147041229</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.120888815719326</v>
+        <v>-3.326991686004338</v>
       </c>
       <c r="G26" t="n">
-        <v>1.558697080596311</v>
+        <v>1.644045110655697</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.733907963736339</v>
       </c>
       <c r="E27" t="n">
-        <v>4.982430686819273</v>
+        <v>5.246416554129367</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.073119828316418</v>
+        <v>-3.281512340821942</v>
       </c>
       <c r="G27" t="n">
-        <v>1.561282534345046</v>
+        <v>1.618071028715704</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.757525213605595</v>
       </c>
       <c r="E28" t="n">
-        <v>5.007425236152408</v>
+        <v>5.241854347467292</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.046125654044565</v>
+        <v>-3.257750746136853</v>
       </c>
       <c r="G28" t="n">
-        <v>1.580102856667461</v>
+        <v>1.679555912297322</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.762095967327874</v>
       </c>
       <c r="E29" t="n">
-        <v>5.027437953397865</v>
+        <v>5.243728023786262</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.189566188881496</v>
+        <v>-3.424567405791169</v>
       </c>
       <c r="G29" t="n">
-        <v>1.590312928796223</v>
+        <v>1.679907836527806</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.746174994792739</v>
       </c>
       <c r="E30" t="n">
-        <v>5.01815496069776</v>
+        <v>5.245001538159312</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.116810276153912</v>
+        <v>-3.344483296132458</v>
       </c>
       <c r="G30" t="n">
-        <v>1.564898754037485</v>
+        <v>1.668510248841415</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.708376531309949</v>
       </c>
       <c r="E31" t="n">
-        <v>4.980287425561181</v>
+        <v>5.209600522239501</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.067528075551992</v>
+        <v>-3.295459701897479</v>
       </c>
       <c r="G31" t="n">
-        <v>1.442901810353662</v>
+        <v>1.526682344273805</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.649211450649873</v>
       </c>
       <c r="E32" t="n">
-        <v>4.828697740562218</v>
+        <v>4.969313732745129</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.042864103225654</v>
+        <v>-3.281289109854253</v>
       </c>
       <c r="G32" t="n">
-        <v>1.406704238030018</v>
+        <v>1.490170052880959</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.570650157390774</v>
       </c>
       <c r="E33" t="n">
-        <v>4.681042043928281</v>
+        <v>4.790699682400814</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.100251844661218</v>
+        <v>-3.340197688497287</v>
       </c>
       <c r="G33" t="n">
-        <v>1.307624453854326</v>
+        <v>1.342909584845555</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.474988457009192</v>
       </c>
       <c r="E34" t="n">
-        <v>4.512724674448826</v>
+        <v>4.585369886573581</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.887782622352309</v>
+        <v>-3.047320488650314</v>
       </c>
       <c r="G34" t="n">
-        <v>1.206677702487109</v>
+        <v>1.213280703733583</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.364960212470335</v>
       </c>
       <c r="E35" t="n">
-        <v>4.294720726958768</v>
+        <v>4.358669690074448</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.836083916029114</v>
+        <v>-3.016959247282472</v>
       </c>
       <c r="G35" t="n">
-        <v>1.166497958064977</v>
+        <v>1.200993851700493</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.244599139322139</v>
       </c>
       <c r="E36" t="n">
-        <v>4.116170108364835</v>
+        <v>4.164627086291114</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.79224342770514</v>
+        <v>-2.950725216351355</v>
       </c>
       <c r="G36" t="n">
-        <v>1.136675276654704</v>
+        <v>1.195432594969905</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.117879695971781</v>
       </c>
       <c r="E37" t="n">
-        <v>3.789153818478242</v>
+        <v>3.808828639668781</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.809136400689031</v>
+        <v>-2.995116768006771</v>
       </c>
       <c r="G37" t="n">
-        <v>1.097243904902942</v>
+        <v>1.144702442681385</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9880445491775157</v>
       </c>
       <c r="E38" t="n">
-        <v>3.57554129986077</v>
+        <v>3.566157060328324</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.756655776058244</v>
+        <v>-2.90812286700118</v>
       </c>
       <c r="G38" t="n">
-        <v>1.056478026710455</v>
+        <v>1.079906299745702</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8577886241499324</v>
       </c>
       <c r="E39" t="n">
-        <v>3.325217655709832</v>
+        <v>3.344485049888303</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.77935641372613</v>
+        <v>-2.870477952911613</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9560143325192221</v>
+        <v>0.9455328456893066</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7316706348438894</v>
       </c>
       <c r="E40" t="n">
-        <v>3.099769016439387</v>
+        <v>3.073153297947455</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.83056474382522</v>
+        <v>-2.922326089800612</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8481608394085095</v>
+        <v>0.8623177082365087</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.61241706902451</v>
       </c>
       <c r="E41" t="n">
-        <v>2.807021729696561</v>
+        <v>2.725228927261939</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.718878509181823</v>
+        <v>-2.748989683072198</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8352719956674695</v>
+        <v>0.8560751701099922</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5018272190722657</v>
       </c>
       <c r="E42" t="n">
-        <v>2.483339266229073</v>
+        <v>2.365442819255028</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.739251689547239</v>
+        <v>-2.827948794042648</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8152062153231351</v>
+        <v>0.827816935235578</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4003707084385716</v>
       </c>
       <c r="E43" t="n">
-        <v>2.296740134384773</v>
+        <v>2.232092202173539</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.59008826900038</v>
+        <v>-2.591102567085812</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7343630593822102</v>
+        <v>0.7466206352228161</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3092790298018276</v>
       </c>
       <c r="E44" t="n">
-        <v>1.952191674645058</v>
+        <v>1.838296917231155</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.508503449516529</v>
+        <v>-2.542186928810618</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7778754103820935</v>
+        <v>0.8398079757404449</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2279031305358284</v>
       </c>
       <c r="E45" t="n">
-        <v>1.819588210392586</v>
+        <v>1.745937848992551</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.53378405164706</v>
+        <v>-2.592146141363728</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6805467084693454</v>
+        <v>0.7661563944990564</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1548211275830009</v>
       </c>
       <c r="E46" t="n">
-        <v>1.593356432973196</v>
+        <v>1.522135385628648</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.46941119366104</v>
+        <v>-2.506951811314882</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6210879813758843</v>
+        <v>0.6741352223153698</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.08897484866362883</v>
       </c>
       <c r="E47" t="n">
-        <v>1.423822881664306</v>
+        <v>1.325961719000757</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.377185088129966</v>
+        <v>-2.424238638579048</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5214836654181891</v>
+        <v>0.5631199004163953</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.02965034063768937</v>
       </c>
       <c r="E48" t="n">
-        <v>1.292025122625818</v>
+        <v>1.244172576090196</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.377527863550298</v>
+        <v>-2.412866057640404</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4650287976577122</v>
+        <v>0.5408980504797566</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.02418928770378235</v>
       </c>
       <c r="E49" t="n">
-        <v>1.164768832946396</v>
+        <v>1.105566882457846</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.331717941361105</v>
+        <v>-2.376809376993089</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4059421221770673</v>
+        <v>0.4747228768939458</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.0741451093302129</v>
       </c>
       <c r="E50" t="n">
-        <v>1.037948636550849</v>
+        <v>1.008797477805676</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.301170064266179</v>
+        <v>-2.35391234486729</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3419022808805515</v>
+        <v>0.3882916277126552</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1209391941866602</v>
       </c>
       <c r="E51" t="n">
-        <v>0.812964756836086</v>
+        <v>0.7286078478764156</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.205091089820087</v>
+        <v>-2.227071411168734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2629535385616061</v>
+        <v>0.3110537128919882</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1652251884860306</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6991102541868492</v>
+        <v>0.6379992519800777</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.165912835149176</v>
+        <v>-2.196246630086564</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1931639750453863</v>
+        <v>0.2257983907754679</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2070807710303479</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5285264194725989</v>
+        <v>0.4158966375422724</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.140686515958876</v>
+        <v>-2.188376823594483</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1874776845760641</v>
+        <v>0.221982727021732</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.247108875271044</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3844607159420007</v>
+        <v>0.2382249146435328</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.104558474592381</v>
+        <v>-2.166577648686831</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1214641399695916</v>
+        <v>0.1328263522567312</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.285081472120417</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3443901473210068</v>
+        <v>0.2137896625709754</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.066669592232115</v>
+        <v>-2.115515089629484</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07608848130224308</v>
+        <v>0.09331935034105246</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3208839042527136</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2628681496668613</v>
+        <v>0.1037227673243441</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.092233807477334</v>
+        <v>-2.136581139883685</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01355392423594144</v>
+        <v>0.001501281742723069</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3544498803612873</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09140480933674031</v>
+        <v>-0.06890308181565875</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.065644315574502</v>
+        <v>-2.124344301346088</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04125591145316149</v>
+        <v>0.05845079517204273</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3864743625639149</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.04883364194726391</v>
+        <v>-0.2278764665273331</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.019948448551861</v>
+        <v>-2.019284244934882</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02250641593543399</v>
+        <v>-0.03724209948566707</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4180153093513125</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1195460154474035</v>
+        <v>-0.3357415481309038</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.092486314637507</v>
+        <v>-2.11968145777235</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.03296960514504692</v>
+        <v>-0.04479413730516152</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.449905849362981</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3002831996674787</v>
+        <v>-0.6097636601768875</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.164336800120459</v>
+        <v>-2.169758385016072</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.04772968552234992</v>
+        <v>-0.07646304860395094</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4833275152574147</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3844784796478109</v>
+        <v>-0.7255144062101341</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.156587148001698</v>
+        <v>-2.135902298170464</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.07023087912893927</v>
+        <v>-0.07374707183039184</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5193678729436931</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3968049765248892</v>
+        <v>-0.7281761000434626</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.119181322817416</v>
+        <v>-2.116179903167139</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1217246521047476</v>
+        <v>-0.1576843553644596</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5582542957044778</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5859322295743107</v>
+        <v>-0.8933163927177364</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.19409422001832</v>
+        <v>-2.212132014112467</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1274530271007653</v>
+        <v>-0.145675627159967</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5987367834507125</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.672209168824384</v>
+        <v>-1.049044389508434</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.203357695256769</v>
+        <v>-2.220014628938759</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1429748984033266</v>
+        <v>-0.1773116027422121</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6400947705941232</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7984798266901809</v>
+        <v>-1.144271304769109</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.214740034926241</v>
+        <v>-2.249450620639974</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.139640462063545</v>
+        <v>-0.1894703714331846</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6816522769917726</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9311229357866416</v>
+        <v>-1.275025489529681</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.251115704087495</v>
+        <v>-2.308239044909688</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1959660266405514</v>
+        <v>-0.2732295581296419</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7225508285509944</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.03735099029382</v>
+        <v>-1.389166654896989</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.16764318010911</v>
+        <v>-2.228370542210207</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.20135101629556</v>
+        <v>-0.2794818549869862</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7615650348339431</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.142221971295235</v>
+        <v>-1.507132022907508</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.211467810495488</v>
+        <v>-2.254888063473182</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2321257838822368</v>
+        <v>-0.3166327333283872</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7980971192045617</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.253148244775405</v>
+        <v>-1.546452389096101</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.232793077037307</v>
+        <v>-2.320759496561973</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2371009068424707</v>
+        <v>-0.3173274329792032</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.83143342667542</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.344120963315761</v>
+        <v>-1.643945159670895</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.207103218132679</v>
+        <v>-2.221363163555048</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2326856910634915</v>
+        <v>-0.2924146130167521</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8602657940124521</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.404378076575086</v>
+        <v>-1.721689308653263</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.213654986042306</v>
+        <v>-2.297837457688427</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2805394574404674</v>
+        <v>-0.3747770813634563</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.883192415510532</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.460513955821623</v>
+        <v>-1.731455358529352</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.269665831550111</v>
+        <v>-2.357497458605215</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3334604447998661</v>
+        <v>-0.46148157500793</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8992097254975987</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.474226192476273</v>
+        <v>-1.707410455689914</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.228097297747024</v>
+        <v>-2.284257573820632</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3636277313925018</v>
+        <v>-0.5090053742987851</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9073314684978068</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.476473140249413</v>
+        <v>-1.674867528061345</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.284760758378949</v>
+        <v>-2.360586706832944</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3390686654225645</v>
+        <v>-0.4729926079401961</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9059092841735462</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.450109318996978</v>
+        <v>-1.658704020206844</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.219995111477103</v>
+        <v>-2.30427395059015</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3820455060682629</v>
+        <v>-0.5114822621670591</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8936419364208001</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.347669481813081</v>
+        <v>-1.50177691936566</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.190526184059344</v>
+        <v>-2.3195128186987</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3316843557891758</v>
+        <v>-0.4608722642518587</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8701215424052542</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.227154035453079</v>
+        <v>-1.379022454201315</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.101921177586123</v>
+        <v>-2.179562859894797</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3542203148743397</v>
+        <v>-0.4712988582208668</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8354858134141637</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.139159559577283</v>
+        <v>-1.250880559699255</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.064712966701108</v>
+        <v>-2.181863480687491</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3186466914030093</v>
+        <v>-0.4235670759792405</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7896722936701713</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9358638492070043</v>
+        <v>-1.035014384181199</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.981738747915625</v>
+        <v>-2.101067898559352</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3102865086868237</v>
+        <v>-0.436580343538337</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7328512649261369</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8356977963060241</v>
+        <v>-0.9340182292391647</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.972657029038847</v>
+        <v>-2.119178273214033</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2933715785585698</v>
+        <v>-0.40495412668692</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6657936275800765</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.550843493040995</v>
+        <v>-0.6477916044514522</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.879330626606919</v>
+        <v>-2.006602164303259</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2472908515889005</v>
+        <v>-0.3487017525911233</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5896320440711713</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.3577163801934596</v>
+        <v>-0.4425679348219727</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.939707284318886</v>
+        <v>-2.122229096439126</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2031399136404621</v>
+        <v>-0.3034560070279221</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5056248235629013</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.1173124859291521</v>
+        <v>-0.2106767034430378</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.877485616559756</v>
+        <v>-2.071403186604357</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1824446951577237</v>
+        <v>-0.2933337634766114</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.415159910147559</v>
       </c>
       <c r="E84" t="n">
-        <v>0.08932254014632243</v>
+        <v>-0.005614052872219775</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.737725953006999</v>
+        <v>-1.915060389771497</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1910085913799432</v>
+        <v>-0.2863025979150598</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3216934997979149</v>
       </c>
       <c r="E85" t="n">
-        <v>0.350129500889206</v>
+        <v>0.2759912029477726</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.624810118279278</v>
+        <v>-1.808034559019132</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1403412609211285</v>
+        <v>-0.23889407363211</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2285069860092885</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5139468756156134</v>
+        <v>0.4739135121559011</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.485359074588955</v>
+        <v>-1.624718630177766</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1502902870002429</v>
+        <v>-0.2433818699716222</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1399184713313224</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7239608622402721</v>
+        <v>0.7117356121955341</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.406118180265848</v>
+        <v>-1.599230045096464</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.09004598207513019</v>
+        <v>-0.1538083094637256</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0608734729976867</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8867285634819961</v>
+        <v>0.8764416413479634</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.297299182723843</v>
+        <v>-1.513761860663759</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01818878746473448</v>
+        <v>-0.06460253112390819</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.002632638494502857</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9390390202439701</v>
+        <v>0.8947252334748399</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.076388353288403</v>
+        <v>-1.244057987009151</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02674841424221673</v>
+        <v>-0.08579178535481248</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04618522089442475</v>
       </c>
       <c r="E90" t="n">
-        <v>1.002226802355069</v>
+        <v>0.9751609624036971</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.020462286754667</v>
+        <v>-1.2505646207887</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0140686972871168</v>
+        <v>-0.02537853240224059</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06695721652039154</v>
       </c>
       <c r="E91" t="n">
-        <v>1.019174668199867</v>
+        <v>1.048078199150281</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7525564592551127</v>
+        <v>-0.9497730902402437</v>
       </c>
       <c r="G91" t="n">
-        <v>0.00644407890708933</v>
+        <v>-0.0513324869599007</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06411361836861654</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9875185652352895</v>
+        <v>1.048514292434156</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5130217019551712</v>
+        <v>-0.7438394729430294</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02615313166171063</v>
+        <v>-0.08050621277011381</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04019167549392035</v>
       </c>
       <c r="E93" t="n">
-        <v>1.051334565643439</v>
+        <v>1.159385673053418</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3185448346499924</v>
+        <v>-0.5127673650329672</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.007291334733276935</v>
+        <v>-0.0306366585564856</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0007450965244409541</v>
       </c>
       <c r="E94" t="n">
-        <v>1.11134466102868</v>
+        <v>1.257879323458755</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1088907012246149</v>
+        <v>-0.2993042769812981</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06694828604668122</v>
+        <v>-0.1115048212451571</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04535716111706471</v>
       </c>
       <c r="E95" t="n">
-        <v>1.104424501030297</v>
+        <v>1.263170995250221</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04008669351583546</v>
+        <v>-0.1925919454567812</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.04102360768150503</v>
+        <v>-0.05790194256915403</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08891345825623134</v>
       </c>
       <c r="E96" t="n">
-        <v>1.090768377077908</v>
+        <v>1.275469435776169</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1176301785955533</v>
+        <v>-0.05247059894271258</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1051945819235217</v>
+        <v>-0.1143220448510564</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1213790327833415</v>
       </c>
       <c r="E97" t="n">
-        <v>1.066226998807596</v>
+        <v>1.219798316085313</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2123264628674568</v>
+        <v>0.08512811565232604</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1160359219527184</v>
+        <v>-0.09265644257161187</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1377416657301352</v>
       </c>
       <c r="E98" t="n">
-        <v>1.037616839702698</v>
+        <v>1.176983104418953</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2314621141797504</v>
+        <v>0.1556111589780084</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1260733865299612</v>
+        <v>-0.1165909497685592</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1384223212536557</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9745540913303328</v>
+        <v>1.08758703082799</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2505630000134693</v>
+        <v>0.2386469797518425</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1325940484850747</v>
+        <v>-0.1241246899677512</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1292789532367341</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8743282662030314</v>
+        <v>0.9736971527795018</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2861152762611135</v>
+        <v>0.282369143464527</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09890020053948174</v>
+        <v>-0.1033971456891452</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1181236971742347</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9057617481205961</v>
+        <v>1.002623250794955</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2841208356481474</v>
+        <v>0.3102297100577016</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.166589807165658</v>
+        <v>-0.2181024876824454</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1141982586221158</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9062594433928225</v>
+        <v>0.9845092166162146</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2432049169691807</v>
+        <v>0.3239413367916746</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1361974598433022</v>
+        <v>-0.1671674020465384</v>
       </c>
     </row>
   </sheetData>
